--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -69,94 +69,94 @@
     <t>-y</t>
   </si>
   <si>
-    <t>-4.531632408573915</t>
+    <t>-4.374623078112156</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.9216433883592792</t>
-  </si>
-  <si>
-    <t>0.4922114102075521</t>
-  </si>
-  <si>
-    <t>0.43871546041170484</t>
+    <t>0.33468162538227564</t>
+  </si>
+  <si>
+    <t>0.25385517675070546</t>
+  </si>
+  <si>
+    <t>0.6571555200523318</t>
   </si>
   <si>
     <t>-3 - x + y</t>
   </si>
   <si>
-    <t>-3.158405883621576</t>
-  </si>
-  <si>
-    <t>0.23190969850965648</t>
-  </si>
-  <si>
-    <t>0.08241778333488313</t>
-  </si>
-  <si>
-    <t>0.9308917247730278</t>
+    <t>-2.8102693382873367</t>
+  </si>
+  <si>
+    <t>0.9092567913461869</t>
+  </si>
+  <si>
+    <t>0.6522943366696484</t>
+  </si>
+  <si>
+    <t>0.7849656311840086</t>
   </si>
   <si>
     <t>-12 + x + 2y</t>
   </si>
   <si>
-    <t>1.7533031093433218</t>
+    <t>0.9341385726238034</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9637500450473929</t>
-  </si>
-  <si>
-    <t>0.9540846764560849</t>
-  </si>
-  <si>
-    <t>0.4536350075721791</t>
+    <t>0.7906785535517057</t>
+  </si>
+  <si>
+    <t>0.5648689493855065</t>
+  </si>
+  <si>
+    <t>0.13732970979821657</t>
   </si>
   <si>
     <t>-12 + 4x - y</t>
   </si>
   <si>
-    <t>2.228520760208049</t>
+    <t>0.36494658748581443</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.9062712352416179</t>
-  </si>
-  <si>
-    <t>0.16453013619782075</t>
-  </si>
-  <si>
-    <t>0.20699827481932687</t>
+    <t>0.5618257705012442</t>
+  </si>
+  <si>
+    <t>0.0021050482917261888</t>
+  </si>
+  <si>
+    <t>0.8770541189264485</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.690038292195491</t>
-  </si>
-  <si>
-    <t>4.531632408573915</t>
+    <t>4.184892416399492</t>
+  </si>
+  <si>
+    <t>4.374623078112156</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.3314951650035454</t>
+    <t>-2.5941065025660786</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.5297874379124847</t>
-  </si>
-  <si>
-    <t>1.6661544101583199</t>
+    <t>1.0790051941172372</t>
+  </si>
+  <si>
+    <t>1.4739279896017703</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,97 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-y</t>
-  </si>
-  <si>
-    <t>-4.374623078112156</t>
+    <t>8.05 - y</t>
+  </si>
+  <si>
+    <t>-8.05</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.33468162538227564</t>
-  </si>
-  <si>
-    <t>0.25385517675070546</t>
-  </si>
-  <si>
-    <t>0.6571555200523318</t>
-  </si>
-  <si>
-    <t>-3 - x + y</t>
-  </si>
-  <si>
-    <t>-2.8102693382873367</t>
-  </si>
-  <si>
-    <t>0.9092567913461869</t>
-  </si>
-  <si>
-    <t>0.6522943366696484</t>
-  </si>
-  <si>
-    <t>0.7849656311840086</t>
-  </si>
-  <si>
-    <t>-12 + x + 2y</t>
-  </si>
-  <si>
-    <t>0.9341385726238034</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>-1.950000000000001 - x + y</t>
+  </si>
+  <si>
+    <t>-1.049999999999999</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>-22.200000000000003 + x + 2y</t>
+  </si>
+  <si>
+    <t>10.200000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7906785535517057</t>
-  </si>
-  <si>
-    <t>0.5648689493855065</t>
-  </si>
-  <si>
-    <t>0.13732970979821657</t>
-  </si>
-  <si>
-    <t>-12 + 4x - y</t>
-  </si>
-  <si>
-    <t>0.36494658748581443</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-16.949999999999996 + 4x - y</t>
+  </si>
+  <si>
+    <t>4.349999999999998</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5618257705012442</t>
-  </si>
-  <si>
-    <t>0.0021050482917261888</t>
-  </si>
-  <si>
-    <t>0.8770541189264485</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
+    <t>9.0</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.184892416399492</t>
-  </si>
-  <si>
-    <t>4.374623078112156</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>8.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.5941065025660786</t>
+    <t>-2.3899999999999997</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.0790051941172372</t>
-  </si>
-  <si>
-    <t>1.4739279896017703</t>
+    <t>-8.1</t>
+  </si>
+  <si>
+    <t>-16.7</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,97 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>8.05 - y</t>
-  </si>
-  <si>
-    <t>-8.05</t>
+    <t>5.95 - y</t>
+  </si>
+  <si>
+    <t>-5.95</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>-1.950000000000001 - x + y</t>
-  </si>
-  <si>
-    <t>-1.049999999999999</t>
-  </si>
-  <si>
-    <t>0.6</t>
+    <t>0.37</t>
   </si>
   <si>
     <t>7.9</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>-22.200000000000003 + x + 2y</t>
-  </si>
-  <si>
-    <t>10.200000000000001</t>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>-0.6000000000000005 - x + y</t>
+  </si>
+  <si>
+    <t>-2.3999999999999995</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-17.25 + x + 2y</t>
+  </si>
+  <si>
+    <t>5.25</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-16.949999999999996 + 4x - y</t>
-  </si>
-  <si>
-    <t>4.349999999999998</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>-15.69 + 4x - y</t>
+  </si>
+  <si>
+    <t>3.4499999999999993</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
-  </si>
-  <si>
-    <t>9.0</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>9.399999999999999</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>8.05</t>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.3899999999999997</t>
+    <t>-1.0</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-8.1</t>
-  </si>
-  <si>
-    <t>-16.7</t>
+    <t>-16.799999999999997</t>
+  </si>
+  <si>
+    <t>6.8</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,97 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.95 - y</t>
-  </si>
-  <si>
-    <t>-5.95</t>
+    <t>8.95 - y</t>
+  </si>
+  <si>
+    <t>-8.95</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>-0.6000000000000005 - x + y</t>
-  </si>
-  <si>
-    <t>-2.3999999999999995</t>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>1.4000000000000001</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>-1.9499999999999993 - x + y</t>
+  </si>
+  <si>
+    <t>-1.0500000000000007</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>-24.9 + x + 2y</t>
+  </si>
+  <si>
+    <t>12.899999999999999</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
   </si>
   <si>
     <t>0.44</t>
   </si>
   <si>
-    <t>3.5999999999999996</t>
-  </si>
-  <si>
-    <t>5.6000000000000005</t>
-  </si>
-  <si>
-    <t>-17.25 + x + 2y</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>5.300000000000001</t>
-  </si>
-  <si>
-    <t>-15.69 + 4x - y</t>
-  </si>
-  <si>
-    <t>3.4499999999999993</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>-19.98 + 4x - y</t>
+  </si>
+  <si>
+    <t>7.050000000000001</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>4.699999999999999</t>
-  </si>
-  <si>
-    <t>9.399999999999999</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>5.95</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.0</t>
+    <t>-0.43999999999999995</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-16.799999999999997</t>
-  </si>
-  <si>
-    <t>6.8</t>
+    <t>-1.0999999999999996</t>
+  </si>
+  <si>
+    <t>-3.6999999999999993</t>
   </si>
   <si>
     <t>vec_alpha</t>
